--- a/document/interface.xlsx
+++ b/document/interface.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="12140" windowHeight="15380" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MD5加密顺序" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,20 @@
     <sheet name="获取用户信息" sheetId="3" r:id="rId4"/>
     <sheet name="提交建议反馈" sheetId="5" r:id="rId5"/>
     <sheet name="修改用户头像" sheetId="6" r:id="rId6"/>
+    <sheet name="获取物品分类" sheetId="7" r:id="rId7"/>
+    <sheet name="商品列表" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="152">
   <si>
     <t>请求示例：</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -336,24 +343,236 @@
   <si>
     <t>返回结果：</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campusapi.isofteam.com/services/service.ashx?action=6&amp;time=1404826715&amp;sign=faa18ab26e62a827bd355aba484e159d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>action=6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign=faa18ab26e62a827bd355aba484e159d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "data": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaID": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaName": "校园代步",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaDesc": "自行车 电动车 摩托车等交通设备"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaID": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaName": "教材",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaDesc": "各种类别的教科书 工具书等等"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaID": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaName": "生活用品",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CaDesc": "各种生活类用品 洗脸盆 塑料桶 电饭煲 等等"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>pageindex=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagesize=10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign=b81531237d967ef718d784ce870a7a37</t>
+  </si>
+  <si>
+    <t>action=7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            "ID": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Name": "自行车",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Title": "自行车一辆",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Category": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CategoryName": "校园代步",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "NewRate": "9成新",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Price": 120,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Publisher": "c55bf53308ef4142b4f72d5d762f88da",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "PublisherName": "lyh_van",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "TradePlace": "上海",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "ID": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Name": "电饭煲",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Title": "电饭煲一个",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Category": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "NewRate": "8成新",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Price": 200,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "TradePlace": "北京",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "ID": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Name": "Java编程思想",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Title": "Java编程思想一本",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Category": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CategoryName": "教材",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "NewRate": "7成新",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Price": 40,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "TradePlace": "江西",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "ID": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Name": "Dell笔记本",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Title": "Dell笔记本一台",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Category": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CategoryName": "电子数码",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Price": 1200,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "TradePlace": "广东",</t>
+  </si>
+  <si>
+    <t>filter=3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campusapi.isofteam.com/services/service.ashx?action=7&amp;time=1404826715&amp;category=0&amp;filter=3&amp;pageindex=1&amp;pagesize=10&amp;sign=b81531237d967ef718d784ce870a7a37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "GoodsImage": "http://cimage.isofteam.com/goods/201407/1.png",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "PraiseCount": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CommentCount": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "CreateDate": "1405612800000"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            "CategoryName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生活用品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,7 +580,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,14 +588,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,9 +636,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,42 +666,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,9 +752,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -833,7 +1059,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -873,6 +1099,11 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -884,7 +1115,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1086,7 +1317,12 @@
     <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1098,7 +1334,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1300,7 +1536,12 @@
     <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1312,7 +1553,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1492,6 +1733,11 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1503,7 +1749,7 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1618,7 +1864,12 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1626,11 +1877,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1690,6 +1941,620 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>